--- a/experiment result/64_0.8_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.8_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004251908397716441</v>
+        <v>0.007646098615936519</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01284549765096894</v>
+        <v>0.007328985918909935</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01152960324354381</v>
+        <v>0.01031787193878586</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01055760796091621</v>
+        <v>0.0004232367423501772</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008491850261461844</v>
+        <v>0.001045356445891363</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01059980506087276</v>
+        <v>0.02663977347967154</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009195352384443337</v>
+        <v>0.007949080370464564</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006690834821550157</v>
+        <v>0.001918814472254317</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004394118883443</v>
+        <v>0.001258084139919498</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.007117961441630882</v>
+        <v>0.001290886148053525</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01266397900088414</v>
+        <v>0.01341088455089892</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0110573574760328</v>
+        <v>0.0665156568134698</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.005965082914639863</v>
+        <v>0.0005701010473650448</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01232387091167316</v>
+        <v>0.006165519808059749</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01241679302881826</v>
+        <v>0.02785610027245347</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01034726557141038</v>
+        <v>0.008142852190237113</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01179284954117646</v>
+        <v>0.00850580185336423</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.008300441776139611</v>
+        <v>0.001826553147338309</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009931111812276291</v>
+        <v>0.01063563740985406</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0129161192515531</v>
+        <v>0.006906023886498395</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.009840963507199724</v>
+        <v>0.001571326850021078</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01039926961649658</v>
+        <v>0.005419370401682716</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01262481267525166</v>
+        <v>0.01951255051049516</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.004120327608536158</v>
+        <v>0.001929417479867963</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003400995877926867</v>
+        <v>0.0006073791135177039</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.009241172686543489</v>
+        <v>0.02152437365661719</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01142116383377764</v>
+        <v>0.00615513932686575</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01249497442171411</v>
+        <v>0.02537894759090712</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0137124208773657</v>
+        <v>0.01634434170571141</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01288420291110998</v>
+        <v>0.01297230777383954</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003020167671135648</v>
+        <v>0.0006798694060691241</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005942036424886682</v>
+        <v>0.0009331006348592462</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01286070907547694</v>
+        <v>0.001528699067477019</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.009137633757802032</v>
+        <v>0.0009638354751731925</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01031361872948215</v>
+        <v>0.003231541159771135</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01431009321223136</v>
+        <v>0.002008809310117742</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.006586755503465764</v>
+        <v>0.0007577932393150316</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0102302196887989</v>
+        <v>0.006443597610364263</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01062831167221233</v>
+        <v>0.01071002267433608</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01704459403605922</v>
+        <v>0.03285831156799256</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01355226159983486</v>
+        <v>0.0106721176715039</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008156958973492797</v>
+        <v>0.03504959267908529</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.006945486962993417</v>
+        <v>0.0006360684678821227</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007980346812469893</v>
+        <v>0.003298098932615816</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01119477603312262</v>
+        <v>0.01240507096924379</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01142778177940051</v>
+        <v>0.01712862269847862</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01404732453269426</v>
+        <v>0.03928566385721644</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.006104857529915508</v>
+        <v>0.000383845622841935</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01351791480929693</v>
+        <v>0.004207758850894533</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0175892401328272</v>
+        <v>0.0002799054577518641</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01294647943759941</v>
+        <v>0.002794859119066862</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01497386983132609</v>
+        <v>0.00103072969918546</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001408501701060108</v>
+        <v>2.198093771729523e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004035188416558118</v>
+        <v>0.0003986211636442268</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008762404945443138</v>
+        <v>0.01123223257398561</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.007623890383864794</v>
+        <v>0.01263861579957483</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.006286836984021287</v>
+        <v>0.006442373509917306</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01110013901775519</v>
+        <v>0.008996262538963472</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.007574329891599979</v>
+        <v>0.01666307356611344</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003477362755549183</v>
+        <v>0.001263475129206635</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005226432573549694</v>
+        <v>0.0002940733818116195</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.008773140726499836</v>
+        <v>0.00285121834390379</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008725472601233622</v>
+        <v>0.003076287244759091</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009907207905179776</v>
+        <v>0.0006219114865748531</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01533476513612207</v>
+        <v>0.03182920261155355</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01386014638261182</v>
+        <v>0.01270763557005643</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01231078265776372</v>
+        <v>0.01138526378424594</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0100480897075631</v>
+        <v>0.0004630549058914419</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006236537320106688</v>
+        <v>0.01145496917543242</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009129523054027273</v>
+        <v>0.000929015957970632</v>
       </c>
     </row>
   </sheetData>
